--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Nydia Gamba.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Nydia Gamba.xlsx
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>72000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="13">
